--- a/data/trans_dic/Q20C_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/Q20C_R2-Clase-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.2695544344253733</v>
+        <v>0.2695544344253734</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0</v>
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.3471157148798254</v>
+        <v>0.3471157148798253</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.3342309418992365</v>
@@ -708,14 +708,14 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1226200856600627</v>
+        <v>0.1264390601330646</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="inlineStr"/>
       <c r="F5" s="5" t="n">
-        <v>0.08713692586402778</v>
+        <v>0.08991884235461833</v>
       </c>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="n">
@@ -726,14 +726,14 @@
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.08656433981247356</v>
+        <v>0.08722358774394214</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1285757504697468</v>
+        <v>0.08466825255447095</v>
       </c>
       <c r="M5" s="5" t="inlineStr"/>
       <c r="N5" s="5" t="n">
-        <v>0.1238848732267015</v>
+        <v>0.1100876303069317</v>
       </c>
     </row>
     <row r="6">
@@ -744,32 +744,32 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8675123771301421</v>
+        <v>0.879257052089056</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>0.8221345566528123</v>
       </c>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.5156349933589519</v>
+        <v>0.5220459368275447</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.8949636573944579</v>
+        <v>0.8122696771131507</v>
       </c>
       <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="5" t="n">
-        <v>0.795032769469064</v>
+        <v>0.7904112669864004</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6664390429531477</v>
+        <v>0.6723052618027126</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.7333006892518906</v>
+        <v>0.7218377394260336</v>
       </c>
       <c r="M6" s="5" t="inlineStr"/>
       <c r="N6" s="5" t="n">
-        <v>0.5167571320294604</v>
+        <v>0.5120075493576836</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>0.3231424042159738</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.03618199230726557</v>
+        <v>0.03618199230726558</v>
       </c>
     </row>
     <row r="8">
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.07813763328200216</v>
+        <v>0.07948954215072092</v>
       </c>
       <c r="N8" s="5" t="n">
         <v>0</v>
@@ -872,20 +872,20 @@
         <v>1</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.5966015021812134</v>
+        <v>0.6820955269993048</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3094547298383409</v>
+        <v>0.3128220530374882</v>
       </c>
       <c r="K9" s="5" t="inlineStr"/>
       <c r="L9" s="5" t="n">
-        <v>0.8427162816173921</v>
+        <v>0.8716496268303434</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.6317810582395015</v>
+        <v>0.6380735389498134</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2193301458128703</v>
+        <v>0.2197265033049019</v>
       </c>
     </row>
     <row r="10">
@@ -921,7 +921,7 @@
         <v>0.1868415575752274</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.4043519255076166</v>
+        <v>0.4043519255076164</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.1983048032972733</v>
@@ -947,35 +947,35 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06148256577599036</v>
+        <v>0.06137095845056637</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1751532171603205</v>
+        <v>0.17057558903364</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="n">
-        <v>0.1480969125718431</v>
+        <v>0.1486792672847791</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0973741123757772</v>
+        <v>0.08717046739588344</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1366450642831808</v>
+        <v>0.1334766398566039</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04708035358525724</v>
+        <v>0.04758246281485494</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2010432989999846</v>
+        <v>0.1945542428691459</v>
       </c>
     </row>
     <row r="12">
@@ -986,38 +986,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7145491025094577</v>
+        <v>0.7093065145552028</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5144420578418776</v>
+        <v>0.5536297239894381</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.511284505004088</v>
+        <v>0.5262384801980606</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6915175847238789</v>
+        <v>0.6748157988433539</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
-        <v>0.8387032558049979</v>
+        <v>0.8392089036522909</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7937440777048996</v>
+        <v>0.7936688078787375</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8017884781685727</v>
+        <v>0.7561482876403022</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5911113524703138</v>
+        <v>0.5934686535763561</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5408588408894908</v>
+        <v>0.5389932687342236</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4877815983370339</v>
+        <v>0.4298893892687003</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.657195188460433</v>
+        <v>0.624928280369446</v>
       </c>
     </row>
     <row r="13">
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1126559807666256</v>
+        <v>0.1177299730258197</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07673017712957611</v>
+        <v>0.0743465631738093</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.07092312112262583</v>
+        <v>0.07145365932788919</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.07167473127128722</v>
+        <v>0.08025868195117489</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05680324173054672</v>
+        <v>0.05443865335566826</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0844606850274054</v>
+        <v>0.1056594698873731</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.05307390469630027</v>
+        <v>0.05275751536482631</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1591388659666057</v>
+        <v>0.1609897925356385</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06567780741627087</v>
+        <v>0.05132785831954632</v>
       </c>
     </row>
     <row r="15">
@@ -1120,40 +1120,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4496099390603198</v>
+        <v>0.4606506576125672</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2680334242325401</v>
+        <v>0.2100071340431663</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5923422511889612</v>
+        <v>0.6298020699033516</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4502514088576727</v>
+        <v>0.4274947109434821</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.616991359904893</v>
+        <v>0.6050571755373464</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5794210263722639</v>
+        <v>0.5697502735409912</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6037886971408912</v>
+        <v>0.6380044441620503</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4952849770255668</v>
+        <v>0.4763758265849151</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4463169542651734</v>
+        <v>0.4238167134177183</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2977609846906462</v>
+        <v>0.2942536739012814</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.518053630408564</v>
+        <v>0.510692319207837</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3640912204283</v>
+        <v>0.3536094127322507</v>
       </c>
     </row>
     <row r="16">
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.4304486292397643</v>
+        <v>0.4304486292397642</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0.2806745600112941</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.3309987101128043</v>
+        <v>0.3309987101128041</v>
       </c>
     </row>
     <row r="17">
@@ -1215,33 +1215,33 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.07042450985431212</v>
+        <v>0.07465832555284234</v>
       </c>
       <c r="E17" s="5" t="inlineStr"/>
       <c r="F17" s="5" t="n">
-        <v>0.1811049559360126</v>
+        <v>0.1569398701511847</v>
       </c>
       <c r="G17" s="5" t="inlineStr"/>
       <c r="H17" s="5" t="n">
-        <v>0.08053056235435882</v>
+        <v>0.0820507707856632</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1747387723400214</v>
+        <v>0.1798260243676562</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1169846892373034</v>
+        <v>0.09835524897566926</v>
       </c>
       <c r="K17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1300396222369423</v>
+        <v>0.1270576365825606</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1187765183488224</v>
+        <v>0.1199911207898791</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1795477141651927</v>
+        <v>0.1823316042610111</v>
       </c>
     </row>
     <row r="18">
@@ -1252,36 +1252,36 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8029475155709536</v>
+        <v>0.7997003946691509</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5728263223299979</v>
+        <v>0.5622962428409201</v>
       </c>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="n">
-        <v>0.7367805511356788</v>
+        <v>0.7164981626435167</v>
       </c>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="n">
-        <v>0.4287299337912288</v>
+        <v>0.4203451037092532</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.660341864728039</v>
+        <v>0.6643289680205259</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.453216007529139</v>
+        <v>0.4759234432309946</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4058586113591105</v>
+        <v>0.3966219746483057</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4121836439516407</v>
+        <v>0.3915170665332385</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4731511709813235</v>
+        <v>0.4895417835267469</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.500570774056539</v>
+        <v>0.5092351029697323</v>
       </c>
     </row>
     <row r="19">
@@ -1346,10 +1346,10 @@
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="inlineStr"/>
       <c r="G20" s="5" t="n">
-        <v>0.1043791715584404</v>
+        <v>0.1049301059867433</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.04608140624231242</v>
+        <v>0.0446940817241475</v>
       </c>
       <c r="I20" s="5" t="n">
         <v>0</v>
@@ -1358,13 +1358,13 @@
         <v>0</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1027733153356083</v>
+        <v>0.1006957956773709</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.04687026236531685</v>
+        <v>0.04707173181822132</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.05810117919465605</v>
+        <v>0.05819227068353145</v>
       </c>
       <c r="N20" s="5" t="n">
         <v>0</v>
@@ -1384,28 +1384,28 @@
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="n">
-        <v>0.4987722403209529</v>
+        <v>0.4842300717449506</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3733303563434995</v>
+        <v>0.3700925844250215</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.4614703132161544</v>
+        <v>0.4212123608891025</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2706109545245395</v>
+        <v>0.2770138364799938</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.5039030670967218</v>
+        <v>0.5025958669441055</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3910739314644084</v>
+        <v>0.3918352197833725</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4847478552508923</v>
+        <v>0.46249433783907</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.4595842745906171</v>
+        <v>0.3918193845437179</v>
       </c>
     </row>
     <row r="22">
@@ -1453,7 +1453,7 @@
         <v>0.2435398874559074</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.2475642761725861</v>
+        <v>0.2475642761725862</v>
       </c>
     </row>
     <row r="23">
@@ -1464,40 +1464,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1351803355467813</v>
+        <v>0.1375458788888443</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1037011079521781</v>
+        <v>0.1024376226002854</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1218495667186171</v>
+        <v>0.1073106239483841</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1871880929198684</v>
+        <v>0.1892262510353047</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.09139629209161486</v>
+        <v>0.09425922117981216</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1800371759569567</v>
+        <v>0.1836559479770491</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1646700272429263</v>
+        <v>0.1601220683622272</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1211404893974967</v>
+        <v>0.1227226946984173</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.137384250497102</v>
+        <v>0.1382380243743739</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1717911101721128</v>
+        <v>0.1729325614287226</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1645492194268222</v>
+        <v>0.172582110948147</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1753645756374891</v>
+        <v>0.1786825779363625</v>
       </c>
     </row>
     <row r="24">
@@ -1508,40 +1508,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4236466516371003</v>
+        <v>0.4332447562475061</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2940577750469088</v>
+        <v>0.306398945988577</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3552547090983913</v>
+        <v>0.3517759010470973</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4144071616065038</v>
+        <v>0.4151979612514347</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3034770822376806</v>
+        <v>0.3049938693188232</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3800768944500938</v>
+        <v>0.3878761890559846</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3979300091435926</v>
+        <v>0.3874785861161484</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3044382758632888</v>
+        <v>0.3000486135929287</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3194107345516055</v>
+        <v>0.3066642005008935</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3191112570429627</v>
+        <v>0.326690696293803</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3372274808387563</v>
+        <v>0.3394312086161756</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3260400053419957</v>
+        <v>0.3268254897514661</v>
       </c>
     </row>
     <row r="25">
@@ -1814,14 +1814,14 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>898</v>
+        <v>926</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="inlineStr"/>
       <c r="F6" s="6" t="n">
-        <v>1213</v>
+        <v>1252</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
@@ -1832,14 +1832,14 @@
         <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>882</v>
+        <v>889</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1738</v>
+        <v>1144</v>
       </c>
       <c r="M6" s="6" t="inlineStr"/>
       <c r="N6" s="6" t="n">
-        <v>2102</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="7">
@@ -1850,32 +1850,32 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6355</v>
+        <v>6441</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>4995</v>
       </c>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>7180</v>
+        <v>7269</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>6657</v>
+        <v>6042</v>
       </c>
       <c r="I7" s="6" t="inlineStr"/>
       <c r="J7" s="6" t="n">
-        <v>2417</v>
+        <v>2403</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>6793</v>
+        <v>6853</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>9910</v>
+        <v>9755</v>
       </c>
       <c r="M7" s="6" t="inlineStr"/>
       <c r="N7" s="6" t="n">
-        <v>8767</v>
+        <v>8686</v>
       </c>
     </row>
     <row r="8">
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>967</v>
+        <v>983</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0</v>
@@ -2022,20 +2022,20 @@
         <v>4396</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>4991</v>
+        <v>5706</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>3032</v>
+        <v>3065</v>
       </c>
       <c r="K11" s="6" t="inlineStr"/>
       <c r="L11" s="6" t="n">
-        <v>5156</v>
+        <v>5333</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>7816</v>
+        <v>7894</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>3574</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="12">
@@ -2141,35 +2141,35 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2929</v>
+        <v>2853</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>459</v>
+        <v>411</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>2891</v>
+        <v>2824</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>4309</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="15">
@@ -2180,38 +2180,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4673</v>
+        <v>4639</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>7625</v>
+        <v>8206</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>5558</v>
+        <v>5721</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>11566</v>
+        <v>11286</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>5316</v>
+        <v>5319</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>4424</v>
+        <v>4423</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>3777</v>
+        <v>3562</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>5523</v>
+        <v>5545</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>11445</v>
+        <v>11405</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>8022</v>
+        <v>7070</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>14087</v>
+        <v>13395</v>
       </c>
     </row>
     <row r="16">
@@ -2320,34 +2320,34 @@
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2099</v>
+        <v>2194</v>
       </c>
       <c r="F18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>907</v>
+        <v>879</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1068</v>
+        <v>1076</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>907</v>
+        <v>1016</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>2024</v>
+        <v>2531</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1952</v>
+        <v>1940</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>4979</v>
+        <v>5037</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1557</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="19">
@@ -2358,40 +2358,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>5458</v>
+        <v>5592</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>5821</v>
+        <v>4561</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>11037</v>
+        <v>11734</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>5929</v>
+        <v>5629</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>7293</v>
+        <v>7152</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>8723</v>
+        <v>8577</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>7642</v>
+        <v>8075</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>5217</v>
+        <v>5018</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>10693</v>
+        <v>10154</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>10950</v>
+        <v>10821</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>16209</v>
+        <v>15979</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>8630</v>
+        <v>8381</v>
       </c>
     </row>
     <row r="20">
@@ -2497,33 +2497,33 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>940</v>
+        <v>996</v>
       </c>
       <c r="E22" s="6" t="inlineStr"/>
       <c r="F22" s="6" t="n">
-        <v>2125</v>
+        <v>1842</v>
       </c>
       <c r="G22" s="6" t="inlineStr"/>
       <c r="H22" s="6" t="n">
-        <v>2245</v>
+        <v>2287</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>2912</v>
+        <v>2997</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1738</v>
+        <v>1462</v>
       </c>
       <c r="K22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>5360</v>
+        <v>5237</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2947</v>
+        <v>2977</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>4775</v>
+        <v>4849</v>
       </c>
     </row>
     <row r="23">
@@ -2534,36 +2534,36 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>3617</v>
+        <v>3603</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>7644</v>
+        <v>7503</v>
       </c>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="n">
-        <v>8646</v>
+        <v>8408</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="n">
-        <v>11952</v>
+        <v>11718</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>11004</v>
+        <v>11070</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>6735</v>
+        <v>7072</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>5435</v>
+        <v>5311</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>16991</v>
+        <v>16139</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>11740</v>
+        <v>12147</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>13313</v>
+        <v>13544</v>
       </c>
     </row>
     <row r="24">
@@ -2672,10 +2672,10 @@
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="n">
-        <v>1939</v>
+        <v>1949</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>924</v>
+        <v>897</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>0</v>
@@ -2684,13 +2684,13 @@
         <v>0</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>2000</v>
+        <v>1959</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="n">
-        <v>9264</v>
+        <v>8994</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>7489</v>
+        <v>7424</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>6695</v>
+        <v>6111</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1597</v>
+        <v>1635</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>9804</v>
+        <v>9779</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>8666</v>
+        <v>8683</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>7560</v>
+        <v>7213</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>2946</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="28">
@@ -2834,40 +2834,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>4503</v>
+        <v>4582</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>6199</v>
+        <v>6124</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>6248</v>
+        <v>5503</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>11710</v>
+        <v>11837</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>4480</v>
+        <v>4620</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>14612</v>
+        <v>14906</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>9921</v>
+        <v>9647</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>5917</v>
+        <v>5995</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>11310</v>
+        <v>11380</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>24213</v>
+        <v>24374</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>18352</v>
+        <v>19248</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>19536</v>
+        <v>19906</v>
       </c>
     </row>
     <row r="31">
@@ -2878,40 +2878,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>14113</v>
+        <v>14432</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>17579</v>
+        <v>18317</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>18217</v>
+        <v>18038</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>25923</v>
+        <v>25973</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>14874</v>
+        <v>14949</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>30848</v>
+        <v>31481</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>23974</v>
+        <v>23345</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>14871</v>
+        <v>14656</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>26295</v>
+        <v>25246</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>44976</v>
+        <v>46045</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>37610</v>
+        <v>37856</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>36322</v>
+        <v>36409</v>
       </c>
     </row>
     <row r="32">
